--- a/CASOS DE USO/CasosDeUso_V(3.1).xlsx
+++ b/CASOS DE USO/CasosDeUso_V(3.1).xlsx
@@ -788,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -926,6 +926,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1291,7 +1294,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1419,7 +1422,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="39" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -1432,11 +1435,11 @@
         <v>110</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1449,11 +1452,11 @@
         <v>112</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1464,11 +1467,11 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="51" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1479,7 +1482,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1547,7 +1550,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="40" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1560,11 +1563,11 @@
         <v>117</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="40" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1577,7 +1580,7 @@
         <v>119</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:5">
